--- a/doc/咨询预约信息导出模板.xlsx
+++ b/doc/咨询预约信息导出模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,7 +552,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -638,13 +634,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -653,9 +646,6 @@
       </c>
       <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -663,27 +653,18 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -691,9 +672,6 @@
       </c>
       <c r="B18" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -701,28 +679,19 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -730,67 +699,58 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
